--- a/Economics/ACF - PACF/Log-Prices/CPI_parameters.xlsx
+++ b/Economics/ACF - PACF/Log-Prices/CPI_parameters.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Standard Error</t>
   </si>
@@ -28,7 +28,25 @@
     <t>ar.L1</t>
   </si>
   <si>
+    <t>ar.L2</t>
+  </si>
+  <si>
+    <t>ar.L3</t>
+  </si>
+  <si>
+    <t>ar.L4</t>
+  </si>
+  <si>
     <t>ma.L1</t>
+  </si>
+  <si>
+    <t>ma.L2</t>
+  </si>
+  <si>
+    <t>ma.L3</t>
+  </si>
+  <si>
+    <t>ma.L4</t>
   </si>
   <si>
     <t>sigma2</t>
@@ -389,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,10 +426,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1.616899077989701</v>
+        <v>1.812132973784958</v>
       </c>
       <c r="C2">
-        <v>60.14155501605516</v>
+        <v>53.62618896933922</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -419,10 +437,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.02186530266791501</v>
+        <v>3.036820511740095</v>
       </c>
       <c r="C3">
-        <v>45.10252320214809</v>
+        <v>0.2439690858172643</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -430,10 +448,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.1781401847295752</v>
+        <v>2.225899253767226</v>
       </c>
       <c r="C4">
-        <v>1.56285018218861</v>
+        <v>-0.2579668243839084</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -441,10 +459,76 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.005061819231677238</v>
+        <v>1.876770031156195</v>
       </c>
       <c r="C5">
-        <v>16.89008538002103</v>
+        <v>0.4512326866748024</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>2.612474294439436</v>
+      </c>
+      <c r="C6">
+        <v>-0.01396293419908407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>3.004346981903349</v>
+      </c>
+      <c r="C7">
+        <v>0.1837470354599774</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1.715117327883046</v>
+      </c>
+      <c r="C8">
+        <v>0.5551018345966626</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>3.144244769877616</v>
+      </c>
+      <c r="C9">
+        <v>0.02248906408430445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.5556821150345007</v>
+      </c>
+      <c r="C10">
+        <v>-0.1301372403866594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0.01292666264363184</v>
+      </c>
+      <c r="C11">
+        <v>5.95578708285368</v>
       </c>
     </row>
   </sheetData>
